--- a/raw_data/20200818_saline/20200818_Sensor0_Test_40.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_40.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E6869-C671-4720-9F76-0755E2163BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>35102.877914</v>
+        <v>35102.877913999997</v>
       </c>
       <c r="B2" s="1">
-        <v>9.750799</v>
+        <v>9.7507990000000007</v>
       </c>
       <c r="C2" s="1">
-        <v>908.443000</v>
+        <v>908.44299999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.694000</v>
+        <v>-196.69399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>35112.946204</v>
       </c>
       <c r="G2" s="1">
-        <v>9.753596</v>
+        <v>9.7535959999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>925.513000</v>
+        <v>925.51300000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.742000</v>
+        <v>-166.74199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>35123.028911</v>
+        <v>35123.028911000001</v>
       </c>
       <c r="L2" s="1">
-        <v>9.756397</v>
+        <v>9.7563969999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>947.663000</v>
+        <v>947.66300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.617000</v>
+        <v>-119.617</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>35133.512321</v>
+        <v>35133.512321000002</v>
       </c>
       <c r="Q2" s="1">
         <v>9.759309</v>
       </c>
       <c r="R2" s="1">
-        <v>954.296000</v>
+        <v>954.29600000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.108000</v>
+        <v>-104.108</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>35143.775079</v>
+        <v>35143.775078999999</v>
       </c>
       <c r="V2" s="1">
-        <v>9.762160</v>
+        <v>9.7621599999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>960.750000</v>
+        <v>960.75</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.273600</v>
+        <v>-90.273600000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>35154.559093</v>
+        <v>35154.559093000003</v>
       </c>
       <c r="AA2" s="1">
         <v>9.765155</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.096000</v>
+        <v>968.096</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.591100</v>
+        <v>-80.591099999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>35165.108473</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.768086</v>
+        <v>9.7680860000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.936000</v>
+        <v>972.93600000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.148700</v>
+        <v>-80.148700000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>35175.550251</v>
+        <v>35175.550251000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.770986</v>
+        <v>9.7709860000000006</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.852000</v>
+        <v>980.85199999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.879800</v>
+        <v>-87.879800000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>35185.794620</v>
+        <v>35185.794620000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.773832</v>
+        <v>9.7738320000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.036000</v>
+        <v>990.03599999999994</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>35196.775054</v>
+        <v>35196.775053999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.776882</v>
+        <v>9.7768820000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.400000</v>
+        <v>1001.4</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.420000</v>
+        <v>-124.42</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>35207.927103</v>
+        <v>35207.927103000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.779980</v>
+        <v>9.7799800000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.010000</v>
+        <v>1011.01</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.230000</v>
+        <v>-143.22999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>35218.886245</v>
+        <v>35218.886245000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.783024</v>
+        <v>9.7830239999999993</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.090000</v>
+        <v>1056.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.515000</v>
+        <v>-228.51499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>35229.960129</v>
+        <v>35229.960128999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.786100</v>
+        <v>9.7860999999999994</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.280000</v>
+        <v>1135.28</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.845000</v>
+        <v>-365.84500000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>35240.338677</v>
@@ -676,3402 +1092,3402 @@
         <v>9.788983</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.854000</v>
+        <v>-578.85400000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>35250.726391</v>
+        <v>35250.726390999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.791868</v>
+        <v>9.7918679999999991</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.340000</v>
+        <v>1415.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-807.182000</v>
+        <v>-807.18200000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>35261.694424</v>
+        <v>35261.694424000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.794915</v>
+        <v>9.7949149999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.380000</v>
+        <v>1578.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1045.140000</v>
+        <v>-1045.1400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>35272.426394</v>
+        <v>35272.426394000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.797896</v>
+        <v>9.7978959999999997</v>
       </c>
       <c r="CE2" s="1">
-        <v>1991.380000</v>
+        <v>1991.38</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1600.940000</v>
+        <v>-1600.94</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>35103.243465</v>
       </c>
       <c r="B3" s="1">
-        <v>9.750901</v>
+        <v>9.7509010000000007</v>
       </c>
       <c r="C3" s="1">
-        <v>908.654000</v>
+        <v>908.654</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>35113.391143</v>
+        <v>35113.391143000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.753720</v>
+        <v>9.7537199999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>925.827000</v>
+        <v>925.827</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.735000</v>
+        <v>-166.73500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>35123.444030</v>
+        <v>35123.444029999999</v>
       </c>
       <c r="L3" s="1">
-        <v>9.756512</v>
+        <v>9.7565120000000007</v>
       </c>
       <c r="M3" s="1">
-        <v>947.745000</v>
+        <v>947.745</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.472000</v>
+        <v>-119.47199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>35133.620944</v>
+        <v>35133.620944000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.759339</v>
+        <v>9.7593390000000007</v>
       </c>
       <c r="R3" s="1">
-        <v>954.284000</v>
+        <v>954.28399999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.099000</v>
+        <v>-104.099</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>35144.173827</v>
+        <v>35144.173826999999</v>
       </c>
       <c r="V3" s="1">
-        <v>9.762271</v>
+        <v>9.7622710000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>960.757000</v>
+        <v>960.75699999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.281500</v>
+        <v>-90.281499999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>35154.928116</v>
+        <v>35154.928116000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.765258</v>
+        <v>9.7652579999999993</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.050000</v>
+        <v>968.05</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.715400</v>
+        <v>-80.715400000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>35165.476039</v>
+        <v>35165.476039000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.768188</v>
+        <v>9.7681880000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.956000</v>
+        <v>972.95600000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.172400</v>
+        <v>-80.172399999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>35175.935641</v>
+        <v>35175.935640999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.771093</v>
+        <v>9.7710930000000005</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.866000</v>
+        <v>980.86599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.895300</v>
+        <v>-87.895300000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>35186.540603</v>
+        <v>35186.540603000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.774039</v>
+        <v>9.7740390000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.017000</v>
+        <v>990.01700000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>35197.200125</v>
+        <v>35197.200125000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.777000</v>
+        <v>9.7769999999999992</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>35208.315966</v>
+        <v>35208.315966000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.780088</v>
+        <v>9.7800879999999992</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.237000</v>
+        <v>-143.23699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>35219.287003</v>
+        <v>35219.287002999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.783135</v>
+        <v>9.7831349999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.513000</v>
+        <v>-228.51300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>35230.362641</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.786212</v>
+        <v>9.7862120000000008</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.878000</v>
+        <v>-365.87799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>35241.071269</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.789186</v>
+        <v>9.7891860000000008</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.760000</v>
+        <v>1266.76</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.922000</v>
+        <v>-578.92200000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>35251.162896</v>
+        <v>35251.162896000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.791990</v>
+        <v>9.7919900000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.390000</v>
+        <v>1415.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-807.263000</v>
+        <v>-807.26300000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>35261.864056</v>
+        <v>35261.864055999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.794962</v>
+        <v>9.7949619999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>35272.989818</v>
+        <v>35272.989818000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.798053</v>
+        <v>9.7980529999999995</v>
       </c>
       <c r="CE3" s="1">
-        <v>1992.060000</v>
+        <v>1992.06</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1602.780000</v>
+        <v>-1602.78</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>35103.668538</v>
+        <v>35103.668537999998</v>
       </c>
       <c r="B4" s="1">
-        <v>9.751019</v>
+        <v>9.7510189999999994</v>
       </c>
       <c r="C4" s="1">
-        <v>908.580000</v>
+        <v>908.58</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.756000</v>
+        <v>-196.756</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>35113.837171</v>
+        <v>35113.837170999999</v>
       </c>
       <c r="G4" s="1">
-        <v>9.753844</v>
+        <v>9.7538440000000008</v>
       </c>
       <c r="H4" s="1">
-        <v>925.495000</v>
+        <v>925.495</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.243000</v>
+        <v>-167.24299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>35123.758990</v>
+        <v>35123.758990000002</v>
       </c>
       <c r="L4" s="1">
-        <v>9.756600</v>
+        <v>9.7566000000000006</v>
       </c>
       <c r="M4" s="1">
-        <v>947.676000</v>
+        <v>947.67600000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.453000</v>
+        <v>-119.453</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>35133.961232</v>
+        <v>35133.961232000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.759434</v>
+        <v>9.7594340000000006</v>
       </c>
       <c r="R4" s="1">
-        <v>954.314000</v>
+        <v>954.31399999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.087000</v>
+        <v>-104.087</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>35144.518546</v>
+        <v>35144.518545999999</v>
       </c>
       <c r="V4" s="1">
-        <v>9.762366</v>
+        <v>9.7623660000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>960.738000</v>
+        <v>960.73800000000006</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.286500</v>
+        <v>-90.286500000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>35155.272839</v>
+        <v>35155.272838999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.765354</v>
+        <v>9.7653540000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.975000</v>
+        <v>967.97500000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.677500</v>
+        <v>-80.677499999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>35166.162966</v>
+        <v>35166.162966000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.768379</v>
+        <v>9.7683789999999995</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.971000</v>
+        <v>972.971</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.198900</v>
+        <v>-80.198899999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>35176.631032</v>
+        <v>35176.631031999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.771286</v>
+        <v>9.7712859999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.883000</v>
+        <v>980.88300000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.895500</v>
+        <v>-87.895499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>35186.905162</v>
+        <v>35186.905162000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.774140</v>
+        <v>9.7741399999999992</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.028000</v>
+        <v>990.02800000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>35197.554268</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.777098</v>
+        <v>9.7770980000000005</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.448000</v>
+        <v>-124.44799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>35208.676063</v>
+        <v>35208.676062999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.780188</v>
+        <v>9.7801880000000008</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.010000</v>
+        <v>1011.01</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.225000</v>
+        <v>-143.22499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>35219.958591</v>
+        <v>35219.958591000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.783322</v>
+        <v>9.7833220000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.120000</v>
+        <v>1056.1199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.515000</v>
+        <v>-228.51499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>35231.043431</v>
+        <v>35231.043430999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.786401</v>
+        <v>9.7864009999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.260000</v>
+        <v>1135.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.837000</v>
+        <v>-365.83699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>35241.192787</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.789220</v>
+        <v>9.7892200000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.896000</v>
+        <v>-578.89599999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>35251.592405</v>
+        <v>35251.592405000003</v>
       </c>
       <c r="BT4" s="1">
         <v>9.792109</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.300000</v>
+        <v>1415.3</v>
       </c>
       <c r="BV4" s="1">
-        <v>-807.269000</v>
+        <v>-807.26900000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>35262.315943</v>
+        <v>35262.315943000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.795088</v>
+        <v>9.7950879999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.170000</v>
+        <v>1578.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1045.210000</v>
+        <v>-1045.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>35273.530456</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.798203</v>
+        <v>9.7982030000000009</v>
       </c>
       <c r="CE4" s="1">
-        <v>1992.310000</v>
+        <v>1992.31</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1601.020000</v>
+        <v>-1601.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>35103.956259</v>
+        <v>35103.956258999999</v>
       </c>
       <c r="B5" s="1">
         <v>9.751099</v>
       </c>
       <c r="C5" s="1">
-        <v>908.582000</v>
+        <v>908.58199999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.628000</v>
+        <v>-196.62799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>35113.982347</v>
+        <v>35113.982346999997</v>
       </c>
       <c r="G5" s="1">
-        <v>9.753884</v>
+        <v>9.7538839999999993</v>
       </c>
       <c r="H5" s="1">
-        <v>925.292000</v>
+        <v>925.29200000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.865000</v>
+        <v>-166.86500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>35124.101725</v>
       </c>
       <c r="L5" s="1">
-        <v>9.756695</v>
+        <v>9.7566950000000006</v>
       </c>
       <c r="M5" s="1">
-        <v>947.653000</v>
+        <v>947.65300000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.471000</v>
+        <v>-119.471</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>35134.312369</v>
+        <v>35134.312368999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.759531</v>
+        <v>9.7595310000000008</v>
       </c>
       <c r="R5" s="1">
-        <v>954.300000</v>
+        <v>954.3</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.173000</v>
+        <v>-104.173</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>35144.860322</v>
       </c>
       <c r="V5" s="1">
-        <v>9.762461</v>
+        <v>9.7624610000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>960.826000</v>
+        <v>960.82600000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.328600</v>
+        <v>-90.328599999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>35155.974677</v>
+        <v>35155.974676999998</v>
       </c>
       <c r="AA5" s="1">
         <v>9.765549</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.018000</v>
+        <v>968.01800000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.923800</v>
+        <v>-80.9238</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>35166.507718</v>
+        <v>35166.507718000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.768474</v>
+        <v>9.7684739999999994</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.942000</v>
+        <v>972.94200000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.160100</v>
+        <v>-80.1601</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>35176.979721</v>
+        <v>35176.979721000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.771383</v>
+        <v>9.7713830000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.862000</v>
+        <v>980.86199999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.876000</v>
+        <v>-87.876000000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>35187.263275</v>
+        <v>35187.263274999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.774240</v>
+        <v>9.7742400000000007</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.025000</v>
+        <v>990.02499999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.818000</v>
+        <v>-102.818</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>35197.921804</v>
+        <v>35197.921803999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.777201</v>
+        <v>9.7772009999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>35209.342685</v>
+        <v>35209.342685000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.780373</v>
+        <v>9.7803730000000009</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.211000</v>
+        <v>-143.21100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>35220.398511</v>
+        <v>35220.398510999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.783444</v>
+        <v>9.7834439999999994</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.515000</v>
+        <v>-228.51499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>35231.154257</v>
+        <v>35231.154257000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.786432</v>
+        <v>9.7864319999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.856000</v>
+        <v>-365.85599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>35241.616868</v>
+        <v>35241.616867999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.789338</v>
+        <v>9.7893380000000008</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.770000</v>
+        <v>1266.77</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.915000</v>
+        <v>-578.91499999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>35252.003129</v>
+        <v>35252.003128999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.792223</v>
+        <v>9.7922229999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.280000</v>
+        <v>1415.28</v>
       </c>
       <c r="BV5" s="1">
-        <v>-807.308000</v>
+        <v>-807.30799999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>35262.771735</v>
+        <v>35262.771735000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.795214</v>
+        <v>9.7952139999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>35274.069148</v>
+        <v>35274.069148000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.798353</v>
+        <v>9.7983530000000005</v>
       </c>
       <c r="CE5" s="1">
-        <v>1991.050000</v>
+        <v>1991.05</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1602.300000</v>
+        <v>-1602.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>35104.297992</v>
       </c>
       <c r="B6" s="1">
-        <v>9.751194</v>
+        <v>9.7511939999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>908.604000</v>
+        <v>908.60400000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>35114.327564</v>
+        <v>35114.327563999999</v>
       </c>
       <c r="G6" s="1">
-        <v>9.753980</v>
+        <v>9.7539800000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>925.555000</v>
+        <v>925.55499999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.928000</v>
+        <v>-166.928</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>35124.444990</v>
+        <v>35124.444990000004</v>
       </c>
       <c r="L6" s="1">
-        <v>9.756790</v>
+        <v>9.7567900000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>947.540000</v>
+        <v>947.54</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.513000</v>
+        <v>-119.51300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>35135.007792</v>
+        <v>35135.007791999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.759724</v>
+        <v>9.7597240000000003</v>
       </c>
       <c r="R6" s="1">
-        <v>954.292000</v>
+        <v>954.29200000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.141000</v>
+        <v>-104.14100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>35145.546753</v>
+        <v>35145.546753000002</v>
       </c>
       <c r="V6" s="1">
-        <v>9.762652</v>
+        <v>9.7626519999999992</v>
       </c>
       <c r="W6" s="1">
-        <v>960.740000</v>
+        <v>960.74</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.225700</v>
+        <v>-90.225700000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>35156.320356</v>
+        <v>35156.320355999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.765645</v>
+        <v>9.7656449999999992</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.000000</v>
+        <v>968</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.536100</v>
+        <v>-80.536100000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>35166.851946</v>
+        <v>35166.851946000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.768570</v>
+        <v>9.7685700000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.950000</v>
+        <v>972.95</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.139200</v>
+        <v>-80.139200000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>35177.328903</v>
+        <v>35177.328903000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.771480</v>
+        <v>9.7714800000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.878000</v>
+        <v>980.87800000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.874800</v>
+        <v>-87.874799999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>35187.923450</v>
+        <v>35187.923450000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.774423</v>
+        <v>9.7744230000000005</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.044000</v>
+        <v>990.04399999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.825000</v>
+        <v>-102.825</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>35198.589948</v>
+        <v>35198.589948000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.777386</v>
+        <v>9.7773859999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.415000</v>
+        <v>-124.41500000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>35209.782636</v>
+        <v>35209.782636000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.780495</v>
+        <v>9.7804950000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.010000</v>
+        <v>1011.01</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.243000</v>
+        <v>-143.24299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>35220.758111</v>
+        <v>35220.758111000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.783544</v>
+        <v>9.7835439999999991</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.110000</v>
+        <v>1056.1099999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.515000</v>
+        <v>-228.51499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>35231.518319</v>
+        <v>35231.518319000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.786533</v>
+        <v>9.7865330000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.892000</v>
+        <v>-365.892</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>35242.012179</v>
+        <v>35242.012178999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.789448</v>
+        <v>9.7894480000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.920000</v>
+        <v>-578.91999999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>35252.431636</v>
+        <v>35252.431636000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.792342</v>
+        <v>9.7923419999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.270000</v>
+        <v>1415.27</v>
       </c>
       <c r="BV6" s="1">
-        <v>-807.320000</v>
+        <v>-807.32</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>35263.220613</v>
+        <v>35263.220612999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.795339</v>
+        <v>9.7953390000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.320000</v>
+        <v>1578.32</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1045.320000</v>
+        <v>-1045.32</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>35274.610775</v>
+        <v>35274.610775000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.798503</v>
+        <v>9.7985030000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1992.950000</v>
+        <v>1992.95</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1602.670000</v>
+        <v>-1602.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>35104.639246</v>
+        <v>35104.639245999999</v>
       </c>
       <c r="B7" s="1">
-        <v>9.751289</v>
+        <v>9.7512889999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>908.563000</v>
+        <v>908.56299999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.577000</v>
+        <v>-196.577</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>35115.014027</v>
+        <v>35115.014026999997</v>
       </c>
       <c r="G7" s="1">
-        <v>9.754171</v>
+        <v>9.7541709999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>925.710000</v>
+        <v>925.71</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.847000</v>
+        <v>-166.84700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>35125.140845</v>
+        <v>35125.140845000002</v>
       </c>
       <c r="L7" s="1">
-        <v>9.756984</v>
+        <v>9.7569839999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>947.694000</v>
+        <v>947.69399999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.379000</v>
+        <v>-119.379</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>35135.357440</v>
+        <v>35135.35744</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.759822</v>
+        <v>9.7598219999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>954.266000</v>
+        <v>954.26599999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.136000</v>
+        <v>-104.136</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>35145.888993</v>
       </c>
       <c r="V7" s="1">
-        <v>9.762747</v>
+        <v>9.7627469999999992</v>
       </c>
       <c r="W7" s="1">
-        <v>960.805000</v>
+        <v>960.80499999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.246000</v>
+        <v>-90.245999999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>35156.670563</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.765742</v>
+        <v>9.7657419999999995</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.991000</v>
+        <v>967.99099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.675200</v>
+        <v>-80.675200000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>35167.505140</v>
+        <v>35167.505140000001</v>
       </c>
       <c r="AF7" s="1">
         <v>9.768751</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.950000</v>
+        <v>972.95</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.171500</v>
+        <v>-80.171499999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>35177.991062</v>
+        <v>35177.991062000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.771664</v>
+        <v>9.7716639999999995</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.879000</v>
+        <v>980.87900000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.903000</v>
+        <v>-87.903000000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>35188.344089</v>
+        <v>35188.344088999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.774540</v>
+        <v>9.77454</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.036000</v>
+        <v>990.03599999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.816000</v>
+        <v>-102.816</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>35199.039820</v>
+        <v>35199.039819999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.777511</v>
+        <v>9.7775110000000005</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.424000</v>
+        <v>-124.42400000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>35210.141740</v>
+        <v>35210.141739999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.780595</v>
+        <v>9.7805949999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.010000</v>
+        <v>1011.01</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.230000</v>
+        <v>-143.22999999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>35221.122671</v>
+        <v>35221.122670999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.783645</v>
+        <v>9.7836449999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.110000</v>
+        <v>1056.1099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.508000</v>
+        <v>-228.50800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>35231.895279</v>
+        <v>35231.895278999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.786638</v>
+        <v>9.7866379999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.880000</v>
+        <v>-365.88</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>35242.436298</v>
+        <v>35242.436298000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.789566</v>
+        <v>9.7895660000000007</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.915000</v>
+        <v>-578.91499999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>35252.862164</v>
+        <v>35252.862163999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.792462</v>
+        <v>9.7924620000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.270000</v>
+        <v>1415.27</v>
       </c>
       <c r="BV7" s="1">
-        <v>-807.391000</v>
+        <v>-807.39099999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>35263.640491</v>
+        <v>35263.640490999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.795456</v>
+        <v>9.7954559999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.250000</v>
+        <v>1578.25</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>35275.146421</v>
+        <v>35275.146420999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.798652</v>
+        <v>9.7986520000000006</v>
       </c>
       <c r="CE7" s="1">
-        <v>1991.730000</v>
+        <v>1991.73</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1600.800000</v>
+        <v>-1600.8</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>35105.319753</v>
+        <v>35105.319753000003</v>
       </c>
       <c r="B8" s="1">
-        <v>9.751478</v>
+        <v>9.7514780000000005</v>
       </c>
       <c r="C8" s="1">
-        <v>908.476000</v>
+        <v>908.476</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.627000</v>
+        <v>-196.62700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>35115.360761</v>
+        <v>35115.360761000004</v>
       </c>
       <c r="G8" s="1">
-        <v>9.754267</v>
+        <v>9.7542670000000005</v>
       </c>
       <c r="H8" s="1">
-        <v>925.476000</v>
+        <v>925.476</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.770000</v>
+        <v>-166.77</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>35125.489533</v>
       </c>
       <c r="L8" s="1">
-        <v>9.757080</v>
+        <v>9.7570800000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>947.551000</v>
+        <v>947.55100000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.509000</v>
+        <v>-119.509</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>35135.707615</v>
+        <v>35135.707614999999</v>
       </c>
       <c r="Q8" s="1">
         <v>9.759919</v>
       </c>
       <c r="R8" s="1">
-        <v>954.294000</v>
+        <v>954.29399999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.092000</v>
+        <v>-104.092</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>35146.233216</v>
+        <v>35146.233216000001</v>
       </c>
       <c r="V8" s="1">
-        <v>9.762843</v>
+        <v>9.7628430000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>960.720000</v>
+        <v>960.72</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.249900</v>
+        <v>-90.249899999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>35157.333320</v>
+        <v>35157.333319999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.765926</v>
+        <v>9.7659260000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.960000</v>
+        <v>967.96</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.626800</v>
+        <v>-80.626800000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>35167.884115</v>
+        <v>35167.884115000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.768857</v>
+        <v>9.7688570000000006</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.989000</v>
+        <v>972.98900000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.182900</v>
+        <v>-80.182900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>35178.374005</v>
+        <v>35178.374004999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.771771</v>
+        <v>9.7717709999999993</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.888000</v>
+        <v>980.88800000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.912200</v>
+        <v>-87.912199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>35188.725977</v>
+        <v>35188.725977000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.774646</v>
+        <v>9.7746460000000006</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.063000</v>
+        <v>990.06299999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.817000</v>
+        <v>-102.81699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>35199.408811</v>
+        <v>35199.408811000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.777614</v>
+        <v>9.7776139999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>35210.501341</v>
+        <v>35210.501341000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.780695</v>
+        <v>9.7806949999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.218000</v>
+        <v>-143.21799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>35221.546254</v>
+        <v>35221.546254000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.783763</v>
+        <v>9.7837630000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.120000</v>
+        <v>1056.1199999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.502000</v>
+        <v>-228.50200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>35232.316878</v>
+        <v>35232.316877999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.786755</v>
+        <v>9.7867549999999994</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.868000</v>
+        <v>-365.86799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>35242.832593</v>
+        <v>35242.832592999999</v>
       </c>
       <c r="BO8" s="1">
         <v>9.789676</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.921000</v>
+        <v>-578.92100000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>35253.271891</v>
+        <v>35253.271890999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.792576</v>
+        <v>9.7925760000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.230000</v>
+        <v>1415.23</v>
       </c>
       <c r="BV8" s="1">
-        <v>-807.413000</v>
+        <v>-807.41300000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>35264.064837</v>
+        <v>35264.064836999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.795574</v>
+        <v>9.7955740000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1045.330000</v>
+        <v>-1045.33</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>35275.691029</v>
+        <v>35275.691029000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.798803</v>
+        <v>9.7988029999999995</v>
       </c>
       <c r="CE8" s="1">
-        <v>1991.850000</v>
+        <v>1991.85</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1603.330000</v>
+        <v>-1603.33</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>35105.662951</v>
+        <v>35105.662950999998</v>
       </c>
       <c r="B9" s="1">
-        <v>9.751573</v>
+        <v>9.7515730000000005</v>
       </c>
       <c r="C9" s="1">
-        <v>908.587000</v>
+        <v>908.58699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.665000</v>
+        <v>-196.66499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>35115.705973</v>
+        <v>35115.705972999996</v>
       </c>
       <c r="G9" s="1">
-        <v>9.754363</v>
+        <v>9.7543629999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>925.632000</v>
+        <v>925.63199999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.189000</v>
+        <v>-167.18899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>35125.834747</v>
+        <v>35125.834747000001</v>
       </c>
       <c r="L9" s="1">
-        <v>9.757176</v>
+        <v>9.7571759999999994</v>
       </c>
       <c r="M9" s="1">
-        <v>947.538000</v>
+        <v>947.53800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.346000</v>
+        <v>-119.346</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>35136.358365</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.760100</v>
+        <v>9.7600999999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>954.314000</v>
+        <v>954.31399999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.077000</v>
+        <v>-104.077</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>35146.895872</v>
+        <v>35146.895872000001</v>
       </c>
       <c r="V9" s="1">
-        <v>9.763027</v>
+        <v>9.7630269999999992</v>
       </c>
       <c r="W9" s="1">
-        <v>960.827000</v>
+        <v>960.827</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.316900</v>
+        <v>-90.316900000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>35157.717617</v>
+        <v>35157.717617000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.766033</v>
+        <v>9.7660330000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.962000</v>
+        <v>967.96199999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.667100</v>
+        <v>-80.667100000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>35168.232323</v>
+        <v>35168.232322999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.768953</v>
+        <v>9.7689529999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.975000</v>
+        <v>972.97500000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.160900</v>
+        <v>-80.160899999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>35178.721706</v>
+        <v>35178.721705999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.771867</v>
+        <v>9.7718670000000003</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.862000</v>
+        <v>980.86199999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.867300</v>
+        <v>-87.8673</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>35189.084618</v>
+        <v>35189.084618000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.774746</v>
+        <v>9.7747460000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.038000</v>
+        <v>990.03800000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.811000</v>
+        <v>-102.81100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>35200.016935</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.777782</v>
+        <v>9.7777820000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.422000</v>
+        <v>-124.422</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>35210.929388</v>
+        <v>35210.929387999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.780814</v>
+        <v>9.7808139999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.247000</v>
+        <v>-143.24700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>35221.842860</v>
+        <v>35221.842859999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.783845</v>
+        <v>9.7838449999999995</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.140000</v>
+        <v>1056.1400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.516000</v>
+        <v>-228.51599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>35232.675032</v>
+        <v>35232.675031999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.786854</v>
+        <v>9.7868539999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.270000</v>
+        <v>1135.27</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.871000</v>
+        <v>-365.87099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>35243.256640</v>
+        <v>35243.25664</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.789794</v>
+        <v>9.7897940000000006</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.770000</v>
+        <v>1266.77</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.907000</v>
+        <v>-578.90700000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>35253.702418</v>
+        <v>35253.702418000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.792695</v>
+        <v>9.7926950000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.150000</v>
+        <v>1415.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-807.436000</v>
+        <v>-807.43600000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>35264.490374</v>
+        <v>35264.490374000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.795692</v>
+        <v>9.7956920000000007</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.270000</v>
+        <v>1578.27</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>35276.228232</v>
+        <v>35276.228232000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.798952</v>
+        <v>9.7989519999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1992.710000</v>
+        <v>1992.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1601.720000</v>
+        <v>-1601.72</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>35106.007703</v>
+        <v>35106.007703000003</v>
       </c>
       <c r="B10" s="1">
-        <v>9.751669</v>
+        <v>9.7516689999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>908.627000</v>
+        <v>908.62699999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>35116.351773</v>
+        <v>35116.351773000002</v>
       </c>
       <c r="G10" s="1">
-        <v>9.754542</v>
+        <v>9.7545420000000007</v>
       </c>
       <c r="H10" s="1">
-        <v>925.417000</v>
+        <v>925.41700000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.826000</v>
+        <v>-166.82599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>35126.490491</v>
+        <v>35126.490490999997</v>
       </c>
       <c r="L10" s="1">
         <v>9.757358</v>
       </c>
       <c r="M10" s="1">
-        <v>947.882000</v>
+        <v>947.88199999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.538000</v>
+        <v>-119.538</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>35136.753709</v>
+        <v>35136.753708999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.760209</v>
+        <v>9.7602089999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>954.307000</v>
+        <v>954.30700000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.155000</v>
+        <v>-104.155</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>35147.267375</v>
+        <v>35147.267375000003</v>
       </c>
       <c r="V10" s="1">
-        <v>9.763130</v>
+        <v>9.7631300000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>960.807000</v>
+        <v>960.80700000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.243600</v>
+        <v>-90.243600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>35158.066494</v>
+        <v>35158.066493999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.766130</v>
+        <v>9.7661300000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.999000</v>
+        <v>967.99900000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.626000</v>
+        <v>-80.626000000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>35168.575043</v>
+        <v>35168.575042999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.769049</v>
+        <v>9.7690490000000008</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.938000</v>
+        <v>972.93799999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.208600</v>
+        <v>-80.208600000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>35179.070356</v>
+        <v>35179.070355999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.771964</v>
+        <v>9.7719640000000005</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.880000</v>
+        <v>980.88</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.899700</v>
+        <v>-87.899699999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>35189.505192</v>
+        <v>35189.505191999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.774863</v>
+        <v>9.7748629999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.065000</v>
+        <v>990.06500000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.839000</v>
+        <v>-102.839</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>35200.150363</v>
+        <v>35200.150363000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.777820</v>
+        <v>9.7778200000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.417000</v>
+        <v>-124.417</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>35211.220540</v>
+        <v>35211.220540000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.780895</v>
+        <v>9.7808949999999992</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.233000</v>
+        <v>-143.233</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>35222.206924</v>
+        <v>35222.206923999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.783946</v>
+        <v>9.7839460000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.110000</v>
+        <v>1056.1099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.491000</v>
+        <v>-228.49100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>35233.047982</v>
+        <v>35233.047981999996</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.786958</v>
+        <v>9.7869580000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.871000</v>
+        <v>-365.87099999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>35243.650464</v>
+        <v>35243.650463999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.789903</v>
+        <v>9.7899030000000007</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.929000</v>
+        <v>-578.92899999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>35254.131425</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.792814</v>
+        <v>9.7928139999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.170000</v>
+        <v>1415.17</v>
       </c>
       <c r="BV10" s="1">
-        <v>-807.376000</v>
+        <v>-807.37599999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>35264.907508</v>
+        <v>35264.907507999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.795808</v>
+        <v>9.7958079999999992</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.400000</v>
+        <v>1578.4</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1045.260000</v>
+        <v>-1045.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>35276.769333</v>
+        <v>35276.769332999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.799103</v>
+        <v>9.7991030000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>1990.920000</v>
+        <v>1990.92</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1601.920000</v>
+        <v>-1601.92</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>35106.659908</v>
+        <v>35106.659908000001</v>
       </c>
       <c r="B11" s="1">
-        <v>9.751850</v>
+        <v>9.7518499999999992</v>
       </c>
       <c r="C11" s="1">
-        <v>908.574000</v>
+        <v>908.57399999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.615000</v>
+        <v>-196.61500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>35116.738616</v>
+        <v>35116.738616000002</v>
       </c>
       <c r="G11" s="1">
-        <v>9.754650</v>
+        <v>9.7546499999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>925.764000</v>
+        <v>925.76400000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.746000</v>
+        <v>-166.74600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>35126.870890</v>
+        <v>35126.870889999998</v>
       </c>
       <c r="L11" s="1">
-        <v>9.757464</v>
+        <v>9.7574640000000006</v>
       </c>
       <c r="M11" s="1">
-        <v>947.636000</v>
+        <v>947.63599999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.441000</v>
+        <v>-119.441</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>35137.100382</v>
+        <v>35137.100381999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.760306</v>
+        <v>9.7603059999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>954.325000</v>
+        <v>954.32500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.162000</v>
+        <v>-104.16200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>35147.608624</v>
       </c>
       <c r="V11" s="1">
-        <v>9.763225</v>
+        <v>9.7632250000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>960.806000</v>
+        <v>960.80600000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.316100</v>
+        <v>-90.316100000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>35158.413008</v>
+        <v>35158.413008000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.766226</v>
+        <v>9.7662259999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.988000</v>
+        <v>967.98800000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.632800</v>
+        <v>-80.632800000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>35169.000580</v>
+        <v>35169.00058</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.769167</v>
+        <v>9.7691669999999995</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.984000</v>
+        <v>972.98400000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.134900</v>
+        <v>-80.134900000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>35179.488485</v>
+        <v>35179.488485000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.772080</v>
+        <v>9.7720800000000008</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.862000</v>
+        <v>980.86199999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.890100</v>
+        <v>-87.890100000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>35189.804316</v>
+        <v>35189.804316000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.774946</v>
+        <v>9.7749459999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.049000</v>
+        <v>990.04899999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.812000</v>
+        <v>-102.812</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>35200.530301</v>
+        <v>35200.530300999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.777925</v>
+        <v>9.7779249999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>35211.578512</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.780994</v>
+        <v>9.7809939999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.222000</v>
+        <v>-143.22200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>35222.568539</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.784047</v>
+        <v>9.7840469999999993</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.532000</v>
+        <v>-228.53200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>35233.755773</v>
+        <v>35233.755772999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.787154</v>
+        <v>9.7871539999999992</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.870000</v>
+        <v>-365.87</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>35244.075537</v>
+        <v>35244.075536999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.790021</v>
+        <v>9.7900209999999994</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.912000</v>
+        <v>-578.91200000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>35254.544129</v>
+        <v>35254.544129000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.792929</v>
+        <v>9.7929290000000009</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.120000</v>
+        <v>1415.12</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.501000</v>
+        <v>-807.50099999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>35265.352453</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.795931</v>
+        <v>9.7959309999999995</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.300000</v>
+        <v>1578.3</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>35277.309972</v>
+        <v>35277.309972000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.799253</v>
+        <v>9.7992530000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1992.620000</v>
+        <v>1992.62</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1602.910000</v>
+        <v>-1602.91</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>35107.033892</v>
+        <v>35107.033891999999</v>
       </c>
       <c r="B12" s="1">
-        <v>9.751954</v>
+        <v>9.7519539999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>908.662000</v>
+        <v>908.66200000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.640000</v>
+        <v>-196.64</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>35117.082374</v>
+        <v>35117.082373999998</v>
       </c>
       <c r="G12" s="1">
-        <v>9.754745</v>
+        <v>9.7547449999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>925.688000</v>
+        <v>925.68799999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.756000</v>
+        <v>-166.756</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>35127.219289</v>
+        <v>35127.219289000001</v>
       </c>
       <c r="L12" s="1">
-        <v>9.757561</v>
+        <v>9.7575610000000008</v>
       </c>
       <c r="M12" s="1">
-        <v>947.706000</v>
+        <v>947.70600000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.468000</v>
+        <v>-119.468</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>35137.446620</v>
+        <v>35137.446620000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.760402</v>
+        <v>9.7604019999999991</v>
       </c>
       <c r="R12" s="1">
-        <v>954.277000</v>
+        <v>954.27700000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.119000</v>
+        <v>-104.119</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>35147.977683</v>
+        <v>35147.977682999997</v>
       </c>
       <c r="V12" s="1">
-        <v>9.763327</v>
+        <v>9.7633270000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>960.739000</v>
+        <v>960.73900000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.308900</v>
+        <v>-90.308899999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>35158.830607</v>
+        <v>35158.830607000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.766342</v>
+        <v>9.7663419999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.058000</v>
+        <v>968.05799999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.743300</v>
+        <v>-80.743300000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>35169.273378</v>
+        <v>35169.273377999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.769243</v>
+        <v>9.7692429999999995</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.974000</v>
+        <v>972.97400000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.154100</v>
+        <v>-80.1541</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>35179.786085</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.772163</v>
+        <v>9.7721630000000008</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.856000</v>
+        <v>980.85599999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.881900</v>
+        <v>-87.881900000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>35190.171320</v>
+        <v>35190.171320000001</v>
       </c>
       <c r="AP12" s="1">
         <v>9.775048</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.048000</v>
+        <v>990.048</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.815000</v>
+        <v>-102.815</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>35200.896052</v>
+        <v>35200.896051999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.778027</v>
+        <v>9.7780269999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.417000</v>
+        <v>-124.417</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>35211.937257</v>
+        <v>35211.937256999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.781094</v>
+        <v>9.7810939999999995</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.050000</v>
+        <v>1011.05</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.228000</v>
+        <v>-143.22800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>35223.289691</v>
+        <v>35223.289690999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.784247</v>
+        <v>9.7842470000000006</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.510000</v>
+        <v>-228.51</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>35234.174396</v>
+        <v>35234.174396000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.787271</v>
+        <v>9.7872710000000005</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.878000</v>
+        <v>-365.87799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>35244.467406</v>
+        <v>35244.467406000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.790130</v>
+        <v>9.7901299999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.948000</v>
+        <v>-578.94799999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>35254.975121</v>
+        <v>35254.975121000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.793049</v>
+        <v>9.7930489999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.422000</v>
+        <v>-807.42200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>35265.774018</v>
+        <v>35265.774017999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.796048</v>
+        <v>9.7960480000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.310000</v>
+        <v>1578.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>35278.168546</v>
+        <v>35278.168546000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.799491</v>
+        <v>9.7994909999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1990.880000</v>
+        <v>1990.88</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1602.540000</v>
+        <v>-1602.54</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>35107.376660</v>
+        <v>35107.376660000002</v>
       </c>
       <c r="B13" s="1">
-        <v>9.752049</v>
+        <v>9.7520489999999995</v>
       </c>
       <c r="C13" s="1">
-        <v>908.716000</v>
+        <v>908.71600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.576000</v>
+        <v>-196.57599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>35117.429574</v>
+        <v>35117.429574000002</v>
       </c>
       <c r="G13" s="1">
         <v>9.754842</v>
       </c>
       <c r="H13" s="1">
-        <v>925.917000</v>
+        <v>925.91700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.754000</v>
+        <v>-166.75399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>35127.563337</v>
       </c>
       <c r="L13" s="1">
-        <v>9.757656</v>
+        <v>9.7576560000000008</v>
       </c>
       <c r="M13" s="1">
-        <v>947.776000</v>
+        <v>947.77599999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.424000</v>
+        <v>-119.42400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>35137.867722</v>
+        <v>35137.867722000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.760519</v>
+        <v>9.7605190000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>954.272000</v>
+        <v>954.27200000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.116000</v>
+        <v>-104.116</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>35148.640798</v>
       </c>
       <c r="V13" s="1">
-        <v>9.763511</v>
+        <v>9.7635109999999994</v>
       </c>
       <c r="W13" s="1">
-        <v>960.822000</v>
+        <v>960.822</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.244900</v>
+        <v>-90.244900000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>35159.111839</v>
+        <v>35159.111838999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.766420</v>
+        <v>9.7664200000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.002000</v>
+        <v>968.00199999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.665800</v>
+        <v>-80.665800000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>35169.615123</v>
+        <v>35169.615123000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.769338</v>
+        <v>9.7693379999999994</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.963000</v>
+        <v>972.96299999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.159400</v>
+        <v>-80.159400000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>35180.131810</v>
+        <v>35180.131809999999</v>
       </c>
       <c r="AK13" s="1">
         <v>9.772259</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.879000</v>
+        <v>980.87900000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.885200</v>
+        <v>-87.885199999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>35190.527990</v>
+        <v>35190.527990000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.775147</v>
+        <v>9.7751470000000005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.066000</v>
+        <v>990.06600000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.844000</v>
+        <v>-102.84399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>35201.623945</v>
+        <v>35201.623944999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.778229</v>
+        <v>9.7782289999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.429000</v>
+        <v>-124.429</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>35212.653976</v>
+        <v>35212.653976000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.781293</v>
+        <v>9.7812929999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.237000</v>
+        <v>-143.23699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>35223.677563</v>
+        <v>35223.677562999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.784355</v>
+        <v>9.7843549999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.521000</v>
+        <v>-228.52099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>35234.546892</v>
+        <v>35234.546891999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.787374</v>
+        <v>9.7873739999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.290000</v>
+        <v>1135.29</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.876000</v>
+        <v>-365.87599999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>35244.889966</v>
+        <v>35244.889966000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.790247</v>
+        <v>9.7902470000000008</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.941000</v>
+        <v>-578.94100000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>35255.706224</v>
+        <v>35255.706224000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.793252</v>
+        <v>9.7932520000000007</v>
       </c>
       <c r="BU13" s="1">
-        <v>1414.980000</v>
+        <v>1414.98</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.512000</v>
+        <v>-807.51199999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>35266.497186</v>
+        <v>35266.497186000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.796249</v>
+        <v>9.7962489999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.280000</v>
+        <v>1578.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>35278.388771</v>
+        <v>35278.388770999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.799552</v>
+        <v>9.7995520000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1990.690000</v>
+        <v>1990.69</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1602.320000</v>
+        <v>-1602.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>35107.716883</v>
+        <v>35107.716883000001</v>
       </c>
       <c r="B14" s="1">
-        <v>9.752144</v>
+        <v>9.7521439999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>908.578000</v>
+        <v>908.57799999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.591000</v>
+        <v>-196.59100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>35117.850646</v>
+        <v>35117.850645999999</v>
       </c>
       <c r="G14" s="1">
-        <v>9.754959</v>
+        <v>9.7549589999999995</v>
       </c>
       <c r="H14" s="1">
-        <v>925.003000</v>
+        <v>925.00300000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.793000</v>
+        <v>-166.79300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>35127.989368</v>
+        <v>35127.989368000002</v>
       </c>
       <c r="L14" s="1">
-        <v>9.757775</v>
+        <v>9.7577750000000005</v>
       </c>
       <c r="M14" s="1">
-        <v>947.690000</v>
+        <v>947.69</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.459000</v>
+        <v>-119.459</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>35138.150411</v>
+        <v>35138.150411000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.760597</v>
+        <v>9.7605970000000006</v>
       </c>
       <c r="R14" s="1">
-        <v>954.299000</v>
+        <v>954.29899999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.093000</v>
+        <v>-104.093</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>35148.987998</v>
+        <v>35148.987997999997</v>
       </c>
       <c r="V14" s="1">
-        <v>9.763608</v>
+        <v>9.7636079999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>960.798000</v>
+        <v>960.798</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.334600</v>
+        <v>-90.334599999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>35159.460031</v>
+        <v>35159.460031000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.766517</v>
+        <v>9.7665170000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.992000</v>
+        <v>967.99199999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.650000</v>
+        <v>-80.650000000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>35169.960375</v>
+        <v>35169.960375000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.769433</v>
+        <v>9.7694329999999994</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.969000</v>
+        <v>972.96900000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.211400</v>
+        <v>-80.211399999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>35180.483955</v>
+        <v>35180.483955000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.772357</v>
+        <v>9.7723569999999995</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.906000</v>
+        <v>980.90599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.884900</v>
+        <v>-87.884900000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>35191.246150</v>
+        <v>35191.246149999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.775346</v>
+        <v>9.7753460000000008</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.088000</v>
+        <v>990.08799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.835000</v>
+        <v>-102.83499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>35202.018262</v>
+        <v>35202.018261999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.778338</v>
+        <v>9.7783379999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.427000</v>
+        <v>-124.42700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>35213.012586</v>
+        <v>35213.012585999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.781392</v>
+        <v>9.7813920000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.238000</v>
+        <v>-143.238</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>35224.038187</v>
+        <v>35224.038186999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.784455</v>
+        <v>9.7844549999999995</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.503000</v>
+        <v>-228.50299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>35235.221978</v>
+        <v>35235.221978000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.787562</v>
+        <v>9.7875619999999994</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.290000</v>
+        <v>1135.29</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.852000</v>
+        <v>-365.85199999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>35245.594817</v>
+        <v>35245.594816999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.790443</v>
+        <v>9.7904429999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.740000</v>
+        <v>1266.74</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.941000</v>
+        <v>-578.94100000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>35255.848080</v>
+        <v>35255.848080000003</v>
       </c>
       <c r="BT14" s="1">
         <v>9.793291</v>
       </c>
       <c r="BU14" s="1">
-        <v>1414.970000</v>
+        <v>1414.97</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.489000</v>
+        <v>-807.48900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>35266.680209</v>
+        <v>35266.680208999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.796300</v>
+        <v>9.7963000000000005</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1045.230000</v>
+        <v>-1045.23</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>35278.909569</v>
+        <v>35278.909569000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.799697</v>
+        <v>9.7996970000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1992.180000</v>
+        <v>1992.18</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1603.410000</v>
+        <v>-1603.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>35108.145428</v>
+        <v>35108.145428000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.752263</v>
+        <v>9.7522629999999992</v>
       </c>
       <c r="C15" s="1">
-        <v>908.517000</v>
+        <v>908.51700000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.637000</v>
+        <v>-196.637</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>35118.131879</v>
       </c>
       <c r="G15" s="1">
-        <v>9.755037</v>
+        <v>9.7550369999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>925.344000</v>
+        <v>925.34400000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.930000</v>
+        <v>-166.93</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>35128.269159</v>
+        <v>35128.269159000003</v>
       </c>
       <c r="L15" s="1">
-        <v>9.757853</v>
+        <v>9.7578530000000008</v>
       </c>
       <c r="M15" s="1">
-        <v>947.720000</v>
+        <v>947.72</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.635000</v>
+        <v>-119.63500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>35138.502571</v>
+        <v>35138.502570999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.760695</v>
+        <v>9.7606950000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>954.318000</v>
+        <v>954.31799999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.118000</v>
+        <v>-104.11799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>35149.333213</v>
+        <v>35149.333212999998</v>
       </c>
       <c r="V15" s="1">
-        <v>9.763704</v>
+        <v>9.7637040000000006</v>
       </c>
       <c r="W15" s="1">
-        <v>960.769000</v>
+        <v>960.76900000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.281500</v>
+        <v>-90.281499999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>35159.806238</v>
+        <v>35159.806237999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.766613</v>
+        <v>9.7666129999999995</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.023000</v>
+        <v>968.02300000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.568100</v>
+        <v>-80.568100000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>35170.645808</v>
+        <v>35170.645808000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.769624</v>
+        <v>9.7696240000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.935000</v>
+        <v>972.93499999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.143800</v>
+        <v>-80.143799999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>35181.179843</v>
+        <v>35181.179842999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.772550</v>
+        <v>9.7725500000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.904000</v>
+        <v>980.904</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.887200</v>
+        <v>-87.887200000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>35191.609221</v>
+        <v>35191.609220999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.775447</v>
+        <v>9.7754469999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.049000</v>
+        <v>990.04899999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>35202.381366</v>
+        <v>35202.381366000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.778439</v>
+        <v>9.7784390000000005</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.424000</v>
+        <v>-124.42400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>35213.368245</v>
+        <v>35213.368244999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.781491</v>
+        <v>9.7814910000000008</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.228000</v>
+        <v>-143.22800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>35224.709741</v>
+        <v>35224.709740999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.784642</v>
+        <v>9.7846419999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.140000</v>
+        <v>1056.1400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.500000</v>
+        <v>-228.5</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>35235.334044</v>
+        <v>35235.334044000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.787593</v>
+        <v>9.7875929999999993</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.848000</v>
+        <v>-365.84800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>35245.707869</v>
+        <v>35245.707868999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.790474</v>
+        <v>9.7904739999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.890000</v>
+        <v>-578.89</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>35256.260751</v>
+        <v>35256.260751000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.793406</v>
+        <v>9.7934059999999992</v>
       </c>
       <c r="BU15" s="1">
-        <v>1414.930000</v>
+        <v>1414.93</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.476000</v>
+        <v>-807.476</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>35267.102304</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.796417</v>
+        <v>9.7964169999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.270000</v>
+        <v>1578.27</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1045.360000</v>
+        <v>-1045.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>35279.425937</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.799841</v>
+        <v>9.7998410000000007</v>
       </c>
       <c r="CE15" s="1">
-        <v>1991.610000</v>
+        <v>1991.61</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1603.450000</v>
+        <v>-1603.45</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>35108.418264</v>
       </c>
@@ -4079,390 +4495,390 @@
         <v>9.752338</v>
       </c>
       <c r="C16" s="1">
-        <v>908.684000</v>
+        <v>908.68399999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.649000</v>
+        <v>-196.649</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>35118.476598</v>
+        <v>35118.476598000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.755132</v>
+        <v>9.7551319999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>925.547000</v>
+        <v>925.54700000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.726000</v>
+        <v>-166.726</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>35128.611882</v>
+        <v>35128.611881999997</v>
       </c>
       <c r="L16" s="1">
-        <v>9.757948</v>
+        <v>9.7579480000000007</v>
       </c>
       <c r="M16" s="1">
-        <v>947.675000</v>
+        <v>947.67499999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.514000</v>
+        <v>-119.514</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>35138.850266</v>
+        <v>35138.850266000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.760792</v>
+        <v>9.7607920000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>954.310000</v>
+        <v>954.31</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.122000</v>
+        <v>-104.122</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>35150.019179</v>
+        <v>35150.019179000003</v>
       </c>
       <c r="V16" s="1">
-        <v>9.763894</v>
+        <v>9.7638940000000005</v>
       </c>
       <c r="W16" s="1">
-        <v>960.823000</v>
+        <v>960.82299999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.298000</v>
+        <v>-90.298000000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>35160.504605</v>
+        <v>35160.504605000002</v>
       </c>
       <c r="AA16" s="1">
         <v>9.766807</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.098000</v>
+        <v>968.09799999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.749800</v>
+        <v>-80.749799999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>35170.989041</v>
+        <v>35170.989041000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.769719</v>
+        <v>9.7697190000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.932000</v>
+        <v>972.93200000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.172000</v>
+        <v>-80.171999999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>35181.527041</v>
+        <v>35181.527041000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.772646</v>
+        <v>9.7726459999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.879000</v>
+        <v>980.87900000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.892600</v>
+        <v>-87.892600000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>35191.968356</v>
+        <v>35191.968355999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.775547</v>
+        <v>9.7755469999999995</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.047000</v>
+        <v>990.04700000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.838000</v>
+        <v>-102.83799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>35203.062651</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.778629</v>
+        <v>9.7786290000000005</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>35214.048232</v>
+        <v>35214.048232000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.781680</v>
+        <v>9.7816799999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.236000</v>
+        <v>-143.23599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>35225.158617</v>
+        <v>35225.158617000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.784766</v>
+        <v>9.7847659999999994</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.140000</v>
+        <v>1056.1400000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.504000</v>
+        <v>-228.50399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>35235.699594</v>
+        <v>35235.699593999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.787694</v>
+        <v>9.7876940000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.892000</v>
+        <v>-365.892</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>35246.130002</v>
+        <v>35246.130001999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.790592</v>
+        <v>9.7905920000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.740000</v>
+        <v>1266.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.977000</v>
+        <v>-578.97699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>35256.687334</v>
+        <v>35256.687334000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.793524</v>
+        <v>9.7935239999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.463000</v>
+        <v>-807.46299999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>35267.626081</v>
+        <v>35267.626081000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.796563</v>
+        <v>9.7965630000000008</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.280000</v>
+        <v>1578.28</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>35279.976959</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.799994</v>
+        <v>9.7999939999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1990.840000</v>
+        <v>1990.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1601.750000</v>
+        <v>-1601.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>35108.757986</v>
+        <v>35108.757985999997</v>
       </c>
       <c r="B17" s="1">
-        <v>9.752433</v>
+        <v>9.7524329999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>908.561000</v>
+        <v>908.56100000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.502000</v>
+        <v>-196.50200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>35118.819829</v>
       </c>
       <c r="G17" s="1">
-        <v>9.755228</v>
+        <v>9.7552280000000007</v>
       </c>
       <c r="H17" s="1">
-        <v>925.493000</v>
+        <v>925.49300000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.100000</v>
+        <v>-167.1</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>35128.960567</v>
+        <v>35128.960567000002</v>
       </c>
       <c r="L17" s="1">
-        <v>9.758045</v>
+        <v>9.7580449999999992</v>
       </c>
       <c r="M17" s="1">
-        <v>947.854000</v>
+        <v>947.85400000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.678000</v>
+        <v>-119.678</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>35139.547177</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.760985</v>
+        <v>9.7609849999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>954.274000</v>
+        <v>954.274</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.138000</v>
+        <v>-104.13800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>35150.366393</v>
+        <v>35150.366392999997</v>
       </c>
       <c r="V17" s="1">
-        <v>9.763991</v>
+        <v>9.7639910000000008</v>
       </c>
       <c r="W17" s="1">
-        <v>960.792000</v>
+        <v>960.79200000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.284000</v>
+        <v>-90.284000000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>35160.852798</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.766904</v>
+        <v>9.7669040000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.935000</v>
+        <v>967.93499999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.575800</v>
+        <v>-80.575800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>35171.333760</v>
+        <v>35171.333760000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.769815</v>
+        <v>9.7698149999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.991000</v>
+        <v>972.99099999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.161400</v>
+        <v>-80.1614</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>35181.876723</v>
+        <v>35181.876723000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.772744</v>
+        <v>9.7727439999999994</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.874000</v>
+        <v>980.87400000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.882400</v>
+        <v>-87.882400000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>35192.638947</v>
+        <v>35192.638946999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.775733</v>
+        <v>9.7757330000000007</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.047000</v>
+        <v>990.04700000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.815000</v>
+        <v>-102.815</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>35203.509264</v>
@@ -4471,936 +4887,936 @@
         <v>9.778753</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.427000</v>
+        <v>-124.42700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>35214.480783</v>
+        <v>35214.480782999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.781800</v>
+        <v>9.7818000000000005</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.239000</v>
+        <v>-143.239</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>35225.518216</v>
+        <v>35225.518215999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.784866</v>
+        <v>9.7848659999999992</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.488000</v>
+        <v>-228.488</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>35236.069146</v>
+        <v>35236.069146000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.787797</v>
+        <v>9.7877969999999994</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.270000</v>
+        <v>1135.27</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.874000</v>
+        <v>-365.87400000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>35246.529245</v>
+        <v>35246.529244999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.790703</v>
+        <v>9.7907030000000006</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.760000</v>
+        <v>1266.76</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.896000</v>
+        <v>-578.89599999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>35257.106431</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.793641</v>
+        <v>9.7936409999999992</v>
       </c>
       <c r="BU17" s="1">
-        <v>1414.880000</v>
+        <v>1414.88</v>
       </c>
       <c r="BV17" s="1">
-        <v>-807.441000</v>
+        <v>-807.44100000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>35268.113649</v>
+        <v>35268.113648999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.796698</v>
+        <v>9.7966979999999992</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.270000</v>
+        <v>1578.27</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1045.330000</v>
+        <v>-1045.33</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>35280.508671</v>
+        <v>35280.508671000003</v>
       </c>
       <c r="CD17" s="1">
         <v>9.800141</v>
       </c>
       <c r="CE17" s="1">
-        <v>1991.850000</v>
+        <v>1991.85</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1603.120000</v>
+        <v>-1603.12</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>35109.100758</v>
       </c>
       <c r="B18" s="1">
-        <v>9.752528</v>
+        <v>9.7525279999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>908.589000</v>
+        <v>908.58900000000006</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.629000</v>
+        <v>-196.62899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>35119.508276</v>
       </c>
       <c r="G18" s="1">
-        <v>9.755419</v>
+        <v>9.7554189999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>925.290000</v>
+        <v>925.29</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.470000</v>
+        <v>-166.47</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>35129.660391</v>
+        <v>35129.660390999998</v>
       </c>
       <c r="L18" s="1">
-        <v>9.758239</v>
+        <v>9.7582389999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>947.980000</v>
+        <v>947.98</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.355000</v>
+        <v>-119.355</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>35139.894842</v>
+        <v>35139.894842000002</v>
       </c>
       <c r="Q18" s="1">
         <v>9.761082</v>
       </c>
       <c r="R18" s="1">
-        <v>954.265000</v>
+        <v>954.26499999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.134000</v>
+        <v>-104.134</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>35150.710602</v>
+        <v>35150.710601999999</v>
       </c>
       <c r="V18" s="1">
-        <v>9.764086</v>
+        <v>9.7640860000000007</v>
       </c>
       <c r="W18" s="1">
-        <v>960.795000</v>
+        <v>960.79499999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.294100</v>
+        <v>-90.2941</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>35161.205985</v>
+        <v>35161.205985000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.767002</v>
+        <v>9.7670019999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.865000</v>
+        <v>967.86500000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.611400</v>
+        <v>-80.611400000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>35171.983023</v>
+        <v>35171.983023000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.769995</v>
+        <v>9.7699949999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.941000</v>
+        <v>972.94100000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.207300</v>
+        <v>-80.207300000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>35182.366273</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.772880</v>
+        <v>9.7728800000000007</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.871000</v>
+        <v>980.87099999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.858100</v>
+        <v>-87.858099999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>35193.080036</v>
+        <v>35193.080035999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.775856</v>
+        <v>9.7758559999999992</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.058000</v>
+        <v>990.05799999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.828000</v>
+        <v>-102.828</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>35203.875812</v>
+        <v>35203.875811999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.778854</v>
+        <v>9.7788540000000008</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.416000</v>
+        <v>-124.416</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>35214.840838</v>
+        <v>35214.840837999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.781900</v>
+        <v>9.7819000000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.231000</v>
+        <v>-143.23099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>35225.878311</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.784966</v>
+        <v>9.7849660000000007</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.140000</v>
+        <v>1056.1400000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.494000</v>
+        <v>-228.494</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>35236.485753</v>
+        <v>35236.485753000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.787913</v>
+        <v>9.7879129999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.893000</v>
+        <v>-365.89299999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>35246.949392</v>
+        <v>35246.949392000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.790819</v>
+        <v>9.7908190000000008</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.760000</v>
+        <v>1266.76</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.915000</v>
+        <v>-578.91499999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>35257.517615</v>
+        <v>35257.517614999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.793755</v>
+        <v>9.7937550000000009</v>
       </c>
       <c r="BU18" s="1">
-        <v>1414.800000</v>
+        <v>1414.8</v>
       </c>
       <c r="BV18" s="1">
-        <v>-807.464000</v>
+        <v>-807.46400000000006</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>35268.403808</v>
+        <v>35268.403808000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.796779</v>
+        <v>9.7967790000000008</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.190000</v>
+        <v>1578.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1045.350000</v>
+        <v>-1045.3499999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>35281.026990</v>
+        <v>35281.026989999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.800285</v>
+        <v>9.8002850000000006</v>
       </c>
       <c r="CE18" s="1">
-        <v>1992.850000</v>
+        <v>1992.85</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1601.880000</v>
+        <v>-1601.88</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>35109.782720</v>
+        <v>35109.782720000003</v>
       </c>
       <c r="B19" s="1">
-        <v>9.752717</v>
+        <v>9.7527170000000005</v>
       </c>
       <c r="C19" s="1">
-        <v>908.669000</v>
+        <v>908.66899999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.745000</v>
+        <v>-196.745</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>35119.851540</v>
+        <v>35119.851540000003</v>
       </c>
       <c r="G19" s="1">
-        <v>9.755514</v>
+        <v>9.7555139999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>925.428000</v>
+        <v>925.428</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.922000</v>
+        <v>-166.922</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>35130.000150</v>
+        <v>35130.00015</v>
       </c>
       <c r="L19" s="1">
-        <v>9.758333</v>
+        <v>9.7583330000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>947.781000</v>
+        <v>947.78099999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.442000</v>
+        <v>-119.44199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>35140.243034</v>
+        <v>35140.243033999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.761179</v>
+        <v>9.7611790000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>954.263000</v>
+        <v>954.26300000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.085000</v>
+        <v>-104.08499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>35151.363834</v>
+        <v>35151.363834000003</v>
       </c>
       <c r="V19" s="1">
-        <v>9.764268</v>
+        <v>9.7642679999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>960.833000</v>
+        <v>960.83299999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.345300</v>
+        <v>-90.345299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>35161.865627</v>
+        <v>35161.865626999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.767185</v>
+        <v>9.7671849999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.998000</v>
+        <v>967.99800000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.604100</v>
+        <v>-80.604100000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>35172.363455</v>
+        <v>35172.363454999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.770101</v>
+        <v>9.7701010000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.949000</v>
+        <v>972.94899999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.193500</v>
+        <v>-80.1935</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>35182.575090</v>
+        <v>35182.575089999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.772938</v>
+        <v>9.7729379999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.896000</v>
+        <v>980.89599999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.895200</v>
+        <v>-87.895200000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>35193.437016</v>
+        <v>35193.437016000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.775955</v>
+        <v>9.7759549999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.076000</v>
+        <v>990.07600000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>35204.237889</v>
+        <v>35204.237889000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.778955</v>
+        <v>9.7789549999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.440000</v>
+        <v>1001.44</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.434000</v>
+        <v>-124.434</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>35215.200933</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.782000</v>
+        <v>9.782</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.020000</v>
+        <v>1011.02</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.227000</v>
+        <v>-143.227</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>35226.301399</v>
+        <v>35226.301399000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.785084</v>
+        <v>9.7850839999999994</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.120000</v>
+        <v>1056.1199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.523000</v>
+        <v>-228.523</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>35236.821583</v>
+        <v>35236.821582999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.788006</v>
+        <v>9.7880059999999993</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.852000</v>
+        <v>-365.85199999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>35247.348635</v>
+        <v>35247.348635000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.790930</v>
+        <v>9.7909299999999995</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.760000</v>
+        <v>1266.76</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.977000</v>
+        <v>-578.97699999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>35257.930780</v>
+        <v>35257.930780000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.793870</v>
+        <v>9.7938700000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1414.750000</v>
+        <v>1414.75</v>
       </c>
       <c r="BV19" s="1">
-        <v>-807.419000</v>
+        <v>-807.41899999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>35268.847230</v>
+        <v>35268.847229999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.796902</v>
+        <v>9.7969019999999993</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1045.310000</v>
+        <v>-1045.31</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>35281.546301</v>
+        <v>35281.546301000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.800430</v>
+        <v>9.8004300000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1991.410000</v>
+        <v>1991.41</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1600.970000</v>
+        <v>-1600.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>35110.125952</v>
+        <v>35110.125952000002</v>
       </c>
       <c r="B20" s="1">
-        <v>9.752813</v>
+        <v>9.7528129999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>908.620000</v>
+        <v>908.62</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.849000</v>
+        <v>-196.84899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>35120.198740</v>
+        <v>35120.19874</v>
       </c>
       <c r="G20" s="1">
         <v>9.755611</v>
       </c>
       <c r="H20" s="1">
-        <v>925.149000</v>
+        <v>925.149</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.738000</v>
+        <v>-166.738</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>35130.351813</v>
+        <v>35130.351813000001</v>
       </c>
       <c r="L20" s="1">
-        <v>9.758431</v>
+        <v>9.7584309999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>947.892000</v>
+        <v>947.89200000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.498000</v>
+        <v>-119.498</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>35140.897784</v>
+        <v>35140.897784000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.761360</v>
+        <v>9.7613599999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>954.314000</v>
+        <v>954.31399999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.107000</v>
+        <v>-104.107</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>35151.740826</v>
+        <v>35151.740826000001</v>
       </c>
       <c r="V20" s="1">
-        <v>9.764372</v>
+        <v>9.7643719999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>960.740000</v>
+        <v>960.74</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.239400</v>
+        <v>-90.239400000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>35162.247547</v>
+        <v>35162.247546999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.767291</v>
+        <v>9.7672910000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.947000</v>
+        <v>967.947</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.610000</v>
+        <v>-80.61</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>35172.705197</v>
+        <v>35172.705197000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.770196</v>
+        <v>9.7701960000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.950000</v>
+        <v>972.95</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.133900</v>
+        <v>-80.133899999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>35182.922308</v>
+        <v>35182.922308000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.773034</v>
+        <v>9.7730340000000009</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.851000</v>
+        <v>980.851</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.859300</v>
+        <v>-87.859300000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>35193.798562</v>
+        <v>35193.798562000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.776055</v>
+        <v>9.7760549999999995</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.061000</v>
+        <v>990.06100000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.845000</v>
+        <v>-102.845</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>35204.659995</v>
+        <v>35204.659995000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.779072</v>
+        <v>9.7790719999999993</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.419000</v>
+        <v>-124.419</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>35215.629018</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.782119</v>
+        <v>9.7821189999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.231000</v>
+        <v>-143.23099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>35226.600026</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.785167</v>
+        <v>9.7851669999999995</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.140000</v>
+        <v>1056.1400000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.487000</v>
+        <v>-228.48699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>35237.208426</v>
+        <v>35237.208425999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.788113</v>
+        <v>9.7881129999999992</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.900000</v>
+        <v>-365.9</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>35247.768251</v>
+        <v>35247.768251000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.791047</v>
+        <v>9.7910470000000007</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.952000</v>
+        <v>-578.952</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>35258.346926</v>
+        <v>35258.346925999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.793985</v>
+        <v>9.7939849999999993</v>
       </c>
       <c r="BU20" s="1">
-        <v>1414.790000</v>
+        <v>1414.79</v>
       </c>
       <c r="BV20" s="1">
-        <v>-807.374000</v>
+        <v>-807.37400000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>35269.283710</v>
+        <v>35269.283710000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.797023</v>
+        <v>9.7970229999999994</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.330000</v>
+        <v>1578.33</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1045.250000</v>
+        <v>-1045.25</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>35282.062175</v>
+        <v>35282.062174999999</v>
       </c>
       <c r="CD20" s="1">
         <v>9.800573</v>
       </c>
       <c r="CE20" s="1">
-        <v>1992.460000</v>
+        <v>1992.46</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1600.870000</v>
+        <v>-1600.87</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>35110.468688</v>
+        <v>35110.468688000001</v>
       </c>
       <c r="B21" s="1">
-        <v>9.752908</v>
+        <v>9.7529079999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>908.846000</v>
+        <v>908.846</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.572000</v>
+        <v>-196.572</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>35120.832137</v>
+        <v>35120.832136999998</v>
       </c>
       <c r="G21" s="1">
-        <v>9.755787</v>
+        <v>9.7557869999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>925.623000</v>
+        <v>925.62300000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.749000</v>
+        <v>-166.749</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>35131.083908</v>
+        <v>35131.083908000001</v>
       </c>
       <c r="L21" s="1">
-        <v>9.758634</v>
+        <v>9.7586340000000007</v>
       </c>
       <c r="M21" s="1">
-        <v>947.650000</v>
+        <v>947.65</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.357000</v>
+        <v>-119.357</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>35141.288599</v>
@@ -5409,1495 +5825,1496 @@
         <v>9.761469</v>
       </c>
       <c r="R21" s="1">
-        <v>954.318000</v>
+        <v>954.31799999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.105000</v>
+        <v>-104.105</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>35152.085512</v>
+        <v>35152.085511999998</v>
       </c>
       <c r="V21" s="1">
-        <v>9.764468</v>
+        <v>9.7644680000000008</v>
       </c>
       <c r="W21" s="1">
-        <v>960.720000</v>
+        <v>960.72</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.293500</v>
+        <v>-90.293499999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>35162.597227</v>
+        <v>35162.597226999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.767388</v>
+        <v>9.7673880000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.022000</v>
+        <v>968.02200000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.626200</v>
+        <v>-80.626199999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>35173.050413</v>
+        <v>35173.050412999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.770292</v>
+        <v>9.7702919999999995</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.983000</v>
+        <v>972.98299999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.141500</v>
+        <v>-80.141499999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>35183.335488</v>
+        <v>35183.335487999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.773149</v>
+        <v>9.7731490000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.883000</v>
+        <v>980.88300000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.884700</v>
+        <v>-87.884699999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>35194.223138</v>
+        <v>35194.223138000001</v>
       </c>
       <c r="AP21" s="1">
         <v>9.776173</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.072000</v>
+        <v>990.072</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.834000</v>
+        <v>-102.834</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>35204.968005</v>
+        <v>35204.968005000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.779158</v>
+        <v>9.7791580000000007</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.412000</v>
+        <v>-124.41200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>35215.915204</v>
+        <v>35215.915203999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.782199</v>
+        <v>9.7821990000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.224000</v>
+        <v>-143.22399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>35226.960369</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.785267</v>
+        <v>9.7852669999999993</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.120000</v>
+        <v>1056.1199999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.547000</v>
+        <v>-228.547</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>35237.596297</v>
+        <v>35237.596296999996</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.788221</v>
+        <v>9.7882210000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.875000</v>
+        <v>-365.875</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>35248.165546</v>
+        <v>35248.165545999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.791157</v>
+        <v>9.7911570000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.941000</v>
+        <v>-578.94100000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>35258.762075</v>
+        <v>35258.762074999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.794101</v>
+        <v>9.7941009999999995</v>
       </c>
       <c r="BU21" s="1">
-        <v>1414.670000</v>
+        <v>1414.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-807.380000</v>
+        <v>-807.38</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>35269.740032</v>
+        <v>35269.740032000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.797150</v>
+        <v>9.7971500000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.350000</v>
+        <v>1578.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>35282.615182</v>
+        <v>35282.615182000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.800726</v>
+        <v>9.8007259999999992</v>
       </c>
       <c r="CE21" s="1">
-        <v>1993.170000</v>
+        <v>1993.17</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1602.150000</v>
+        <v>-1602.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>35111.110528</v>
+        <v>35111.110527999997</v>
       </c>
       <c r="B22" s="1">
-        <v>9.753086</v>
+        <v>9.7530859999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>908.633000</v>
+        <v>908.63300000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.698000</v>
+        <v>-196.69800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>35121.232369</v>
+        <v>35121.232368999998</v>
       </c>
       <c r="G22" s="1">
-        <v>9.755898</v>
+        <v>9.7558980000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>925.410000</v>
+        <v>925.41</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.732000</v>
+        <v>-166.732</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>35131.414740</v>
+        <v>35131.41474</v>
       </c>
       <c r="L22" s="1">
-        <v>9.758726</v>
+        <v>9.7587259999999993</v>
       </c>
       <c r="M22" s="1">
-        <v>947.733000</v>
+        <v>947.73299999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.421000</v>
+        <v>-119.42100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>35141.638310</v>
+        <v>35141.638310000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.761566</v>
+        <v>9.7615660000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>954.305000</v>
+        <v>954.30499999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.145000</v>
+        <v>-104.145</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>35152.427288</v>
+        <v>35152.427287999999</v>
       </c>
       <c r="V22" s="1">
-        <v>9.764563</v>
+        <v>9.7645630000000008</v>
       </c>
       <c r="W22" s="1">
-        <v>960.814000</v>
+        <v>960.81399999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.301200</v>
+        <v>-90.301199999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>35162.942967</v>
+        <v>35162.942967000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.767484</v>
+        <v>9.7674839999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.958000</v>
+        <v>967.95799999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.595000</v>
+        <v>-80.594999999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>35173.468046</v>
+        <v>35173.468046000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.770408</v>
+        <v>9.7704079999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.950000</v>
+        <v>972.95</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.143300</v>
+        <v>-80.143299999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>35183.631568</v>
+        <v>35183.631567999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.773231</v>
+        <v>9.7732309999999991</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.871000</v>
+        <v>980.87099999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.876600</v>
+        <v>-87.876599999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>35194.518784</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.776255</v>
+        <v>9.7762550000000008</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.066000</v>
+        <v>990.06600000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.827000</v>
+        <v>-102.827</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>35205.332067</v>
+        <v>35205.332067000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.779259</v>
+        <v>9.7792589999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.417000</v>
+        <v>-124.417</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>35216.273814</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.782298</v>
+        <v>9.7822980000000008</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.232000</v>
+        <v>-143.232</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>35227.324149</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.785368</v>
+        <v>9.7853680000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.170000</v>
+        <v>1056.17</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.503000</v>
+        <v>-228.50299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>35238.347270</v>
+        <v>35238.347269999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.788430</v>
+        <v>9.78843</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.881000</v>
+        <v>-365.88099999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>35248.584170</v>
+        <v>35248.584170000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.791273</v>
+        <v>9.7912730000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.760000</v>
+        <v>1266.76</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.923000</v>
+        <v>-578.923</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>35259.174258</v>
+        <v>35259.174257999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.794215</v>
+        <v>9.7942149999999994</v>
       </c>
       <c r="BU22" s="1">
-        <v>1414.720000</v>
+        <v>1414.72</v>
       </c>
       <c r="BV22" s="1">
-        <v>-807.277000</v>
+        <v>-807.27700000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>35270.185966</v>
+        <v>35270.185965999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.797274</v>
+        <v>9.7972739999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>35283.145931</v>
+        <v>35283.145930999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.800874</v>
+        <v>9.8008740000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>1991.870000</v>
+        <v>1991.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1601.130000</v>
+        <v>-1601.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>35111.492466</v>
+        <v>35111.492466000003</v>
       </c>
       <c r="B23" s="1">
-        <v>9.753192</v>
+        <v>9.7531920000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>908.627000</v>
+        <v>908.62699999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.639000</v>
+        <v>-196.63900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>35121.577585</v>
+        <v>35121.577584999999</v>
       </c>
       <c r="G23" s="1">
-        <v>9.755994</v>
+        <v>9.7559939999999994</v>
       </c>
       <c r="H23" s="1">
-        <v>925.241000</v>
+        <v>925.24099999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.560000</v>
+        <v>-166.56</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>35131.741603</v>
+        <v>35131.741603000002</v>
       </c>
       <c r="L23" s="1">
-        <v>9.758817</v>
+        <v>9.7588170000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>947.724000</v>
+        <v>947.72400000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.553000</v>
+        <v>-119.553</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>35141.986506</v>
+        <v>35141.986506000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.761663</v>
+        <v>9.7616630000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>954.272000</v>
+        <v>954.27200000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.139000</v>
+        <v>-104.139</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>35152.845384</v>
       </c>
       <c r="V23" s="1">
-        <v>9.764679</v>
+        <v>9.7646789999999992</v>
       </c>
       <c r="W23" s="1">
-        <v>960.770000</v>
+        <v>960.77</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.246000</v>
+        <v>-90.245999999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>35163.357630</v>
+        <v>35163.357629999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.767599</v>
+        <v>9.7675990000000006</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.023000</v>
+        <v>968.02300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.552300</v>
+        <v>-80.552300000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>35173.758700</v>
+        <v>35173.758699999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.770489</v>
+        <v>9.7704889999999995</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.997000</v>
+        <v>972.99699999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.168500</v>
+        <v>-80.168499999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>35183.982770</v>
+        <v>35183.982770000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.773329</v>
+        <v>9.7733290000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.867000</v>
+        <v>980.86699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.917000</v>
+        <v>-87.917000000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>35194.879922</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.776356</v>
+        <v>9.7763559999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.069000</v>
+        <v>990.06899999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.835000</v>
+        <v>-102.83499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>35205.695630</v>
+        <v>35205.695630000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.779360</v>
+        <v>9.7793600000000005</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.430000</v>
+        <v>1001.43</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.443000</v>
+        <v>-124.443</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>35216.977108</v>
+        <v>35216.977107999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.782494</v>
+        <v>9.7824939999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.030000</v>
+        <v>1011.03</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.234000</v>
+        <v>-143.23400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>35228.045862</v>
+        <v>35228.045861999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.785568</v>
+        <v>9.7855679999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.150000</v>
+        <v>1056.1500000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.515000</v>
+        <v>-228.51499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>35238.748504</v>
+        <v>35238.748504000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.788541</v>
+        <v>9.7885410000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.280000</v>
+        <v>1135.28</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.902000</v>
+        <v>-365.90199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>35248.982985</v>
+        <v>35248.982985000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.791384</v>
+        <v>9.7913840000000008</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.770000</v>
+        <v>1266.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.943000</v>
+        <v>-578.94299999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>35259.587453</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.794330</v>
+        <v>9.7943300000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1414.640000</v>
+        <v>1414.64</v>
       </c>
       <c r="BV23" s="1">
-        <v>-807.324000</v>
+        <v>-807.32399999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>35270.921997</v>
+        <v>35270.921996999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.797478</v>
+        <v>9.7974779999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.260000</v>
+        <v>1578.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1045.220000</v>
+        <v>-1045.22</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>35283.980667</v>
+        <v>35283.980667000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.801106</v>
+        <v>9.8011060000000008</v>
       </c>
       <c r="CE23" s="1">
-        <v>1990.940000</v>
+        <v>1990.94</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1602.660000</v>
+        <v>-1602.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>35111.837411</v>
       </c>
       <c r="B24" s="1">
-        <v>9.753288</v>
+        <v>9.7532879999999995</v>
       </c>
       <c r="C24" s="1">
-        <v>908.551000</v>
+        <v>908.55100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.595000</v>
+        <v>-196.595</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35121.923296</v>
+        <v>35121.923296000001</v>
       </c>
       <c r="G24" s="1">
-        <v>9.756090</v>
+        <v>9.7560900000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>925.408000</v>
+        <v>925.40800000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.592000</v>
+        <v>-166.59200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>35132.156259</v>
+        <v>35132.156259000003</v>
       </c>
       <c r="L24" s="1">
-        <v>9.758932</v>
+        <v>9.7589319999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>947.672000</v>
+        <v>947.67200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.571000</v>
+        <v>-119.571</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>35142.404134</v>
+        <v>35142.404133999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.761779</v>
+        <v>9.7617790000000007</v>
       </c>
       <c r="R24" s="1">
-        <v>954.273000</v>
+        <v>954.27300000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.120000</v>
+        <v>-104.12</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>35153.117687</v>
+        <v>35153.117686999998</v>
       </c>
       <c r="V24" s="1">
-        <v>9.764755</v>
+        <v>9.7647549999999992</v>
       </c>
       <c r="W24" s="1">
-        <v>960.803000</v>
+        <v>960.803</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.328800</v>
+        <v>-90.328800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>35163.648746</v>
+        <v>35163.648745999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.767680</v>
+        <v>9.7676800000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.919000</v>
+        <v>967.91899999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.595800</v>
+        <v>-80.595799999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>35174.102428</v>
+        <v>35174.102427999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.770584</v>
+        <v>9.7705839999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.961000</v>
+        <v>972.96100000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.130200</v>
+        <v>-80.130200000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>35184.329966</v>
+        <v>35184.329965999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.773425</v>
+        <v>9.7734249999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.885000</v>
+        <v>980.88499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.881700</v>
+        <v>-87.881699999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>35195.237952</v>
+        <v>35195.237952000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.776455</v>
+        <v>9.7764550000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.038000</v>
+        <v>990.03800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>35206.424722</v>
+        <v>35206.424722000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.779562</v>
+        <v>9.7795620000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.410000</v>
+        <v>1001.41</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.444000</v>
+        <v>-124.444</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>35217.351624</v>
+        <v>35217.351624000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.782598</v>
+        <v>9.7825980000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.228000</v>
+        <v>-143.22800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>35228.407444</v>
+        <v>35228.407443999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.785669</v>
+        <v>9.7856690000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.150000</v>
+        <v>1056.1500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.493000</v>
+        <v>-228.49299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>35239.124965</v>
+        <v>35239.124965000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>9.788646</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.882000</v>
+        <v>-365.88200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>35249.407528</v>
+        <v>35249.407528000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.791502</v>
+        <v>9.7915019999999995</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.936000</v>
+        <v>-578.93600000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>35260.314059</v>
+        <v>35260.314058999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.794532</v>
+        <v>9.7945320000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1414.640000</v>
+        <v>1414.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-807.245000</v>
+        <v>-807.245</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>35271.059387</v>
+        <v>35271.059387000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.797516</v>
+        <v>9.7975159999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.250000</v>
+        <v>1578.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>35284.180058</v>
+        <v>35284.180057999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.801161</v>
+        <v>9.8011610000000005</v>
       </c>
       <c r="CE24" s="1">
-        <v>1992.610000</v>
+        <v>1992.61</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1603.050000</v>
+        <v>-1603.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>35112.178435</v>
+        <v>35112.178435000002</v>
       </c>
       <c r="B25" s="1">
-        <v>9.753383</v>
+        <v>9.7533829999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>908.642000</v>
+        <v>908.64200000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.686000</v>
+        <v>-196.68600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>35122.341425</v>
+        <v>35122.341424999999</v>
       </c>
       <c r="G25" s="1">
-        <v>9.756206</v>
+        <v>9.7562060000000006</v>
       </c>
       <c r="H25" s="1">
-        <v>925.894000</v>
+        <v>925.89400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.778000</v>
+        <v>-166.77799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>35132.449394</v>
+        <v>35132.449394000003</v>
       </c>
       <c r="L25" s="1">
-        <v>9.759014</v>
+        <v>9.7590140000000005</v>
       </c>
       <c r="M25" s="1">
-        <v>947.593000</v>
+        <v>947.59299999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.566000</v>
+        <v>-119.566</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>35142.693765</v>
+        <v>35142.693765000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.761859</v>
+        <v>9.7618589999999994</v>
       </c>
       <c r="R25" s="1">
-        <v>954.294000</v>
+        <v>954.29399999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.089000</v>
+        <v>-104.089</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>35153.459928</v>
+        <v>35153.459927999997</v>
       </c>
       <c r="V25" s="1">
-        <v>9.764850</v>
+        <v>9.7648499999999991</v>
       </c>
       <c r="W25" s="1">
-        <v>960.845000</v>
+        <v>960.84500000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.281500</v>
+        <v>-90.281499999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>35163.996938</v>
+        <v>35163.996937999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.767777</v>
+        <v>9.7677770000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.038000</v>
+        <v>968.03800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.606600</v>
+        <v>-80.6066</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>35174.446686</v>
+        <v>35174.446686000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.770680</v>
+        <v>9.7706800000000005</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.950000</v>
+        <v>972.95</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.193600</v>
+        <v>-80.193600000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>35185.024352</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.773618</v>
+        <v>9.7736180000000008</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.864000</v>
+        <v>980.86400000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.889200</v>
+        <v>-87.889200000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>35195.965584</v>
+        <v>35195.965583999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.776657</v>
+        <v>9.7766570000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.065000</v>
+        <v>990.06500000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>35206.816096</v>
+        <v>35206.816096000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.779671</v>
+        <v>9.7796710000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.450000</v>
+        <v>1001.45</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.414000</v>
+        <v>-124.414</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>35217.709698</v>
+        <v>35217.709697999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.782697</v>
+        <v>9.7826970000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.231000</v>
+        <v>-143.23099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>35228.768005</v>
+        <v>35228.768004999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.785769</v>
+        <v>9.7857690000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.130000</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.533000</v>
+        <v>-228.53299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>35239.806468</v>
+        <v>35239.806468000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.788835</v>
+        <v>9.7888350000000006</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.884000</v>
+        <v>-365.88400000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>35250.102423</v>
+        <v>35250.102422999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.791695</v>
+        <v>9.7916950000000007</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.720000</v>
+        <v>1266.72</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.974000</v>
+        <v>-578.97400000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>35260.443032</v>
+        <v>35260.443032000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.794568</v>
+        <v>9.7945679999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1414.660000</v>
+        <v>1414.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-807.184000</v>
+        <v>-807.18399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>35271.484955</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.797635</v>
+        <v>9.7976349999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.250000</v>
+        <v>1578.25</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1045.260000</v>
+        <v>-1045.26</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>35284.696890</v>
+        <v>35284.696889999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.801305</v>
+        <v>9.8013049999999993</v>
       </c>
       <c r="CE25" s="1">
-        <v>1992.810000</v>
+        <v>1992.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1601.530000</v>
+        <v>-1601.53</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>35112.605986</v>
+        <v>35112.605986000002</v>
       </c>
       <c r="B26" s="1">
-        <v>9.753502</v>
+        <v>9.7535019999999992</v>
       </c>
       <c r="C26" s="1">
-        <v>908.599000</v>
+        <v>908.59900000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.612000</v>
+        <v>-196.61199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>35122.617697</v>
+        <v>35122.617697000001</v>
       </c>
       <c r="G26" s="1">
-        <v>9.756283</v>
+        <v>9.7562829999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>925.623000</v>
+        <v>925.62300000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.454000</v>
+        <v>-166.45400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>35132.790643</v>
       </c>
       <c r="L26" s="1">
-        <v>9.759109</v>
+        <v>9.7591090000000005</v>
       </c>
       <c r="M26" s="1">
-        <v>947.840000</v>
+        <v>947.84</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.397000</v>
+        <v>-119.39700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>35143.045430</v>
+        <v>35143.045429999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.761957</v>
+        <v>9.7619570000000007</v>
       </c>
       <c r="R26" s="1">
-        <v>954.308000</v>
+        <v>954.30799999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.089000</v>
+        <v>-104.089</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>35153.803687</v>
       </c>
       <c r="V26" s="1">
-        <v>9.764945</v>
+        <v>9.7649450000000009</v>
       </c>
       <c r="W26" s="1">
-        <v>960.835000</v>
+        <v>960.83500000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.208000</v>
+        <v>-90.207999999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>35164.336698</v>
+        <v>35164.336697999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.767871</v>
+        <v>9.7678709999999995</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.044000</v>
+        <v>968.04399999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.691900</v>
+        <v>-80.691900000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>35175.133643</v>
+        <v>35175.133643000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.770870</v>
+        <v>9.7708700000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.958000</v>
+        <v>972.95799999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.126400</v>
+        <v>-80.126400000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>35185.375536</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.773715</v>
+        <v>9.7737149999999993</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.880000</v>
+        <v>980.88</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.882800</v>
+        <v>-87.882800000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>35196.343038</v>
+        <v>35196.343037999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.776762</v>
+        <v>9.7767619999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.080000</v>
+        <v>990.08</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.816000</v>
+        <v>-102.816</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>35207.178916</v>
+        <v>35207.178915999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.779772</v>
+        <v>9.7797719999999995</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.420000</v>
+        <v>1001.42</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.413000</v>
+        <v>-124.413</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>35218.375329</v>
+        <v>35218.375329000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.782882</v>
+        <v>9.7828820000000007</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.040000</v>
+        <v>1011.04</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.223000</v>
+        <v>-143.22300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>35229.438125</v>
+        <v>35229.438125000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.785955</v>
+        <v>9.7859549999999995</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.150000</v>
+        <v>1056.1500000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.529000</v>
+        <v>-228.529</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>35239.915092</v>
+        <v>35239.915092000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.788865</v>
+        <v>9.7888649999999995</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.891000</v>
+        <v>-365.89100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>35250.225927</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.791729</v>
+        <v>9.7917290000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.938000</v>
+        <v>-578.93799999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>35260.880986</v>
+        <v>35260.880985999996</v>
       </c>
       <c r="BT26" s="1">
         <v>9.794689</v>
       </c>
       <c r="BU26" s="1">
-        <v>1414.580000</v>
+        <v>1414.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-807.180000</v>
+        <v>-807.18</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>35271.899114</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.797750</v>
+        <v>9.7977500000000006</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.200000</v>
+        <v>1578.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1045.350000</v>
+        <v>-1045.3499999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>35285.217689</v>
+        <v>35285.217688999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.801449</v>
+        <v>9.8014489999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1991.260000</v>
+        <v>1991.26</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1601.170000</v>
+        <v>-1601.17</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>